--- a/bioSample/bioSample_hbrown_07.17.19.xlsx
+++ b/bioSample/bioSample_hbrown_07.17.19.xlsx
@@ -64,10 +64,10 @@
     <t xml:space="preserve">H.BROWN</t>
   </si>
   <si>
-    <t xml:space="preserve">Environmental Perturbation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KN99 alpha</t>
+    <t xml:space="preserve">Environmental_Perturbation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KN99_alpha</t>
   </si>
   <si>
     <t xml:space="preserve">CNAG_00000</t>
@@ -206,8 +206,8 @@
   </sheetPr>
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O15" activeCellId="0" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/bioSample/bioSample_hbrown_07.17.19.xlsx
+++ b/bioSample/bioSample_hbrown_07.17.19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20B1B53-1872-D74C-B419-8E13356A62E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9705A86-C5FB-E846-A83D-D8B67BF4F81B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="21">
   <si>
     <t>harvestDate</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>experimentDesign</t>
-  </si>
-  <si>
-    <t>experimentObservations</t>
   </si>
   <si>
     <t>strain</t>
@@ -458,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,10 +467,10 @@
     <col min="2" max="2" width="16.1640625" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="1025" width="10.6640625" customWidth="1"/>
+    <col min="5" max="1022" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,15 +492,15 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -515,21 +512,21 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
@@ -538,15 +535,15 @@
       <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2">
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -557,21 +554,21 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
@@ -580,709 +577,706 @@
       <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3">
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4">
+        <v>15</v>
+      </c>
+      <c r="H4">
         <v>30</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5">
+        <v>16</v>
+      </c>
+      <c r="H5">
         <v>30</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6">
+        <v>17</v>
+      </c>
+      <c r="H6">
         <v>30</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7">
+        <v>18</v>
+      </c>
+      <c r="H7">
         <v>30</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8">
+        <v>19</v>
+      </c>
+      <c r="H8">
         <v>30</v>
       </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9">
+        <v>20</v>
+      </c>
+      <c r="H9">
         <v>30</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>90</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="K10">
+      <c r="H11">
         <v>90</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
         <v>17</v>
       </c>
-      <c r="K11">
+      <c r="H12">
         <v>90</v>
       </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
         <v>18</v>
       </c>
-      <c r="K12">
+      <c r="H13">
         <v>90</v>
       </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
         <v>19</v>
       </c>
-      <c r="K13">
+      <c r="H14">
         <v>90</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14">
-        <v>90</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
         <v>12</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15">
+        <v>20</v>
+      </c>
+      <c r="H15">
         <v>90</v>
       </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
         <v>12</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16">
+        <v>15</v>
+      </c>
+      <c r="H16">
         <v>180</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
         <v>12</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17">
+        <v>16</v>
+      </c>
+      <c r="H17">
         <v>180</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
         <v>12</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18">
+        <v>17</v>
+      </c>
+      <c r="H18">
         <v>180</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
         <v>12</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19">
+        <v>18</v>
+      </c>
+      <c r="H19">
         <v>180</v>
       </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
         <v>12</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20">
+        <v>19</v>
+      </c>
+      <c r="H20">
         <v>180</v>
       </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
         <v>12</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21">
+        <v>20</v>
+      </c>
+      <c r="H21">
         <v>180</v>
       </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
         <v>12</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22">
+        <v>15</v>
+      </c>
+      <c r="H22">
         <v>1440</v>
       </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
         <v>12</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23">
+        <v>16</v>
+      </c>
+      <c r="H23">
         <v>1440</v>
       </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
         <v>12</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24">
+        <v>17</v>
+      </c>
+      <c r="H24">
         <v>1440</v>
       </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
         <v>12</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25">
+        <v>18</v>
+      </c>
+      <c r="H25">
         <v>1440</v>
       </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
         <v>12</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26">
+        <v>19</v>
+      </c>
+      <c r="H26">
         <v>1440</v>
       </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
         <v>12</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27">
+        <v>20</v>
+      </c>
+      <c r="H27">
         <v>1440</v>
       </c>
-      <c r="L27">
+      <c r="I27">
         <v>1</v>
       </c>
     </row>

--- a/bioSample/bioSample_hbrown_07.17.19.xlsx
+++ b/bioSample/bioSample_hbrown_07.17.19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9705A86-C5FB-E846-A83D-D8B67BF4F81B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28080790-D5C1-C248-8FDD-A86AE027BFDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22860" windowHeight="13440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
